--- a/va_facility_data_2025-02-20/Trident VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Trident%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Trident VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Trident%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R209d158049544fdf83fded751bb21c27"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R69b96897b16a4da8bcc1906dd146c1a7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rde9f66ef89f9464a8036f8b16a1d6461"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R183e067ba26849d6a84a330d152bd4b2"/>
   </x:sheets>
 </x:workbook>
 </file>
